--- a/de.bund.bfr.knime.fsklab.nodes/resources/vocabularies/Type of sampling program.xlsx
+++ b/de.bund.bfr.knime.fsklab.nodes/resources/vocabularies/Type of sampling program.xlsx
@@ -26,28 +26,100 @@
     <t>Comment</t>
   </si>
   <si>
+    <t>Clinical investigations</t>
+  </si>
+  <si>
+    <t>K020A</t>
+  </si>
+  <si>
+    <t>Control and eradication programmes</t>
+  </si>
+  <si>
+    <t>K021A</t>
+  </si>
+  <si>
+    <t>Diet study</t>
+  </si>
+  <si>
+    <t>K010A</t>
+  </si>
+  <si>
+    <t>EU increased control programme on imported food</t>
+  </si>
+  <si>
+    <t>K019A</t>
+  </si>
+  <si>
+    <t>Industry - private programme</t>
+  </si>
+  <si>
+    <t>K012A</t>
+  </si>
+  <si>
+    <t>Monitoring</t>
+  </si>
+  <si>
+    <t>K022A</t>
+  </si>
+  <si>
+    <t>Monitoring - active</t>
+  </si>
+  <si>
+    <t>K023A</t>
+  </si>
+  <si>
+    <t>Monitoring - EFSA specifications</t>
+  </si>
+  <si>
+    <t>K025A</t>
+  </si>
+  <si>
+    <t>Monitoring - passive</t>
+  </si>
+  <si>
+    <t>K024A</t>
+  </si>
+  <si>
+    <t>Official (EU) programme</t>
+  </si>
+  <si>
+    <t>K009A</t>
+  </si>
+  <si>
+    <t>Official (National and EU) programme</t>
+  </si>
+  <si>
+    <t>K018A</t>
+  </si>
+  <si>
     <t>Official (National) programme</t>
   </si>
   <si>
     <t>K005A</t>
   </si>
   <si>
-    <t>Official (EU) programme</t>
-  </si>
-  <si>
-    <t>K009A</t>
-  </si>
-  <si>
-    <t>Diet study</t>
-  </si>
-  <si>
-    <t>K010A</t>
-  </si>
-  <si>
-    <t>Industry - private programme</t>
-  </si>
-  <si>
-    <t>K012A</t>
+    <t>Other - Combination of several programmes</t>
+  </si>
+  <si>
+    <t>K014A</t>
+  </si>
+  <si>
+    <t>Surveillance</t>
+  </si>
+  <si>
+    <t>K026A</t>
+  </si>
+  <si>
+    <t>Surveillance active</t>
+  </si>
+  <si>
+    <t>K030A</t>
+  </si>
+  <si>
+    <t>Surveillance passive</t>
+  </si>
+  <si>
+    <t>K031A</t>
   </si>
   <si>
     <t>Survey</t>
@@ -56,66 +128,6 @@
     <t>K013A</t>
   </si>
   <si>
-    <t>Other - Combination of several programmes</t>
-  </si>
-  <si>
-    <t>K014A</t>
-  </si>
-  <si>
-    <t>Official (National and EU) programme</t>
-  </si>
-  <si>
-    <t>K018A</t>
-  </si>
-  <si>
-    <t>EU increased control programme on imported food</t>
-  </si>
-  <si>
-    <t>K019A</t>
-  </si>
-  <si>
-    <t>Clinical investigations</t>
-  </si>
-  <si>
-    <t>K020A</t>
-  </si>
-  <si>
-    <t>Control and eradication programmes</t>
-  </si>
-  <si>
-    <t>K021A</t>
-  </si>
-  <si>
-    <t>Monitoring</t>
-  </si>
-  <si>
-    <t>K022A</t>
-  </si>
-  <si>
-    <t>Monitoring - active</t>
-  </si>
-  <si>
-    <t>K023A</t>
-  </si>
-  <si>
-    <t>Monitoring - passive</t>
-  </si>
-  <si>
-    <t>K024A</t>
-  </si>
-  <si>
-    <t>Monitoring - EFSA specifications</t>
-  </si>
-  <si>
-    <t>K025A</t>
-  </si>
-  <si>
-    <t>Surveillance</t>
-  </si>
-  <si>
-    <t>K026A</t>
-  </si>
-  <si>
     <t>Survey - EU baseline survey</t>
   </si>
   <si>
@@ -132,18 +144,6 @@
   </si>
   <si>
     <t>K029A</t>
-  </si>
-  <si>
-    <t>Surveillance active</t>
-  </si>
-  <si>
-    <t>K030A</t>
-  </si>
-  <si>
-    <t>Surveillance passive</t>
-  </si>
-  <si>
-    <t>K031A</t>
   </si>
 </sst>
 </file>
